--- a/Movies.xlsx
+++ b/Movies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -412,9 +412,6 @@
     <t>Shawshank Redemption</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -744,27 +744,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1409,8 +1389,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Year">
+  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0">
       <items count="51">
@@ -1467,7 +1447,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="25">
         <item x="20"/>
         <item x="19"/>
@@ -1505,7 +1485,7 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="2"/>
@@ -1549,17 +1529,80 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="25">
+    <i>
+      <x v="5"/>
+    </i>
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -1568,6 +1611,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
@@ -1843,15 +1889,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.7109375" customWidth="1"/>
@@ -1888,43 +1934,219 @@
     <col min="36" max="36" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>6</v>
+      <c r="A4" s="26">
+        <v>2014</v>
       </c>
       <c r="B4" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>20</v>
+      <c r="A5" s="26">
+        <v>2019</v>
       </c>
       <c r="B5" s="24">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>9</v>
+      <c r="A6" s="26">
+        <v>2017</v>
       </c>
       <c r="B6" s="24">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>129</v>
+      <c r="A7" s="26">
+        <v>2015</v>
       </c>
       <c r="B7" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>1999</v>
+      </c>
+      <c r="B8" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>2001</v>
+      </c>
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>1991</v>
+      </c>
+      <c r="B16" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>1960</v>
+      </c>
+      <c r="B19" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>1977</v>
+      </c>
+      <c r="B20" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>1997</v>
+      </c>
+      <c r="B21" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>1972</v>
+      </c>
+      <c r="B23" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>1993</v>
+      </c>
+      <c r="B24" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>1942</v>
+      </c>
+      <c r="B25" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="26">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="26">
+        <v>1982</v>
+      </c>
+      <c r="B27" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="24">
         <v>50</v>
       </c>
     </row>
@@ -1937,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -3402,7 +3624,7 @@
     </row>
     <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="C61" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" s="19">
         <v>2014</v>
@@ -3414,10 +3636,10 @@
     </row>
     <row r="65" spans="3:5" ht="21" x14ac:dyDescent="0.35">
       <c r="C65" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="E65" s="20">
         <f>COUNTIF(D2:D51,"*R*")</f>
@@ -3445,11 +3667,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G51">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J51">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E51">
     <cfRule type="dataBar" priority="2">
